--- a/GraphofTimeTaken.xlsx
+++ b/GraphofTimeTaken.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\CS300\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\CS300\Assignment5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB302093-B5BE-4EBE-87EF-4CD1AD47610D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C1E20-3BBF-42BF-AB3D-8A2945BC43B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{C26DE941-6384-4428-AB57-2C6A33CFD6FE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>#ofitems</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>BST</t>
+  </si>
+  <si>
+    <t>Hash</t>
   </si>
 </sst>
 </file>
@@ -1564,15 +1567,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E220EC-078B-44CC-AF1D-AD3DEFEA8062}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1581,8 +1584,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1595,8 +1602,14 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1609,8 +1622,14 @@
       <c r="D3">
         <v>144</v>
       </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1623,8 +1642,14 @@
       <c r="D4">
         <v>196</v>
       </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1637,8 +1662,11 @@
       <c r="D5">
         <v>150</v>
       </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -1651,8 +1679,11 @@
       <c r="D6">
         <v>150</v>
       </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100000</v>
       </c>
@@ -1665,8 +1696,11 @@
       <c r="D7">
         <v>149</v>
       </c>
+      <c r="E7">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000000</v>
       </c>
@@ -1679,11 +1713,15 @@
       <c r="D8">
         <v>222</v>
       </c>
+      <c r="E8">
+        <v>1000000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
